--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CAF28C8-4C37-8243-90F2-7893B3748D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F442FF71-F274-9246-B46A-09BE476C93C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,26 +28,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>الاسم</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="13">
   <si>
     <t>التسلسل</t>
   </si>
   <si>
-    <t>العنوان</t>
-  </si>
-  <si>
     <t xml:space="preserve">المبلغ بالدينار </t>
   </si>
   <si>
     <t xml:space="preserve">المبلغ بالدولار </t>
   </si>
   <si>
-    <t>السجل</t>
-  </si>
-  <si>
     <t>المبلغ المتبقي</t>
   </si>
   <si>
@@ -58,6 +49,15 @@
   </si>
   <si>
     <t>جديد</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>record</t>
   </si>
 </sst>
 </file>
@@ -413,49 +413,49 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>90000</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>90000</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F442FF71-F274-9246-B46A-09BE476C93C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{198B6401-E69A-A440-A4EC-F6F17FA0F9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,13 +51,13 @@
     <t>جديد</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>record</t>
+    <t>الاسم</t>
+  </si>
+  <si>
+    <t>العنوان</t>
+  </si>
+  <si>
+    <t>السجل</t>
   </si>
 </sst>
 </file>
@@ -412,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEBB29-0C20-B14A-8131-82E846EA9F4E}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{198B6401-E69A-A440-A4EC-F6F17FA0F9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7185B842-10AB-824A-B6AE-1A2CF91BF4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="16">
   <si>
     <t>التسلسل</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>السجل</t>
+  </si>
+  <si>
+    <t>محمود</t>
+  </si>
+  <si>
+    <t>علي</t>
+  </si>
+  <si>
+    <t>خالد</t>
   </si>
 </sst>
 </file>
@@ -410,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEBB29-0C20-B14A-8131-82E846EA9F4E}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="C1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -461,6 +470,29 @@
         <v>90000</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7185B842-10AB-824A-B6AE-1A2CF91BF4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E440F63-66FD-8740-A8E9-E6EFB07A869F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>التسلسل</t>
   </si>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53AEBB29-0C20-B14A-8131-82E846EA9F4E}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -493,6 +493,30 @@
         <v>7</v>
       </c>
     </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E440F63-66FD-8740-A8E9-E6EFB07A869F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDADF7ED-7C41-9640-8C88-C5D76D4A4C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
-    <t>التسلسل</t>
-  </si>
-  <si>
     <t xml:space="preserve">المبلغ بالدينار </t>
   </si>
   <si>
@@ -49,6 +46,15 @@
   </si>
   <si>
     <t>جديد</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>record</t>
   </si>
   <si>
     <t>الاسم</t>
@@ -422,49 +428,49 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>90000</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>90000</v>
@@ -472,49 +478,49 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CDADF7ED-7C41-9640-8C88-C5D76D4A4C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D817590-9234-7E49-B594-54DEE87E3DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t xml:space="preserve">المبلغ بالدينار </t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>خالد</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -428,14 +431,14 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -501,7 +504,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D817590-9234-7E49-B594-54DEE87E3DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FB65F42-1EB5-0F47-B520-98D0C66CC20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t xml:space="preserve">المبلغ بالدينار </t>
   </si>
@@ -75,7 +75,7 @@
     <t>خالد</t>
   </si>
   <si>
-    <t>name</t>
+    <t>Name</t>
   </si>
 </sst>
 </file>
